--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1782106.41795872</v>
+        <v>-1785022.015051049</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365403</v>
+        <v>10077562.50365404</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>90.6048699291681</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>163.3224055697213</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>108.5607166928065</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>253.8882539618261</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.8462330113458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>63.41281894810198</v>
+        <v>198.9923348665001</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>88.88965426564965</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>36.86740133315055</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>192.1094872182887</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>275.1802903004228</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.82953530753672</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>179.5502959952861</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>363.7358473936652</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>282.026047627202</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>89.53408223745106</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>218.3898308490742</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695481</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128561</v>
+        <v>83.81768903128535</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364132</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>96.36494467179759</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012225</v>
+        <v>66.37524671012126</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146356</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>120.7871326503972</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>68.07731664460587</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>120.7871326503968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>93.85094319419998</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545293</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652783</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808186</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972043</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808338</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065882</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308916</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652591</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808205</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445514</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>546.109828622464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2137.650957246255</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1806.588069902685</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1806.588069902685</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1433.122311641605</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1042.982979665793</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.6762024268119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>243.6866515287946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1282.700798147047</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2238.283583831625</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="V5" t="n">
-        <v>1907.220696488055</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="W5" t="n">
-        <v>1554.45204121794</v>
+        <v>2046.305888383938</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.45204121794</v>
+        <v>1672.840130122858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.312709242129</v>
+        <v>1282.700798147047</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1563.476704221263</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1563.476704221263</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1205.211005614513</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>819.4227530162684</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491377</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221263</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221263</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221263</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>201.8560754027575</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>201.8560754027575</v>
+        <v>546.7650488576605</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027575</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.266991787324</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.001293180573</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.213040582329</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2271357927214</v>
       </c>
       <c r="G11" t="n">
-        <v>378.6914586310042</v>
+        <v>380.2440287091278</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,7 +5054,7 @@
         <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.614279155823</v>
+        <v>3652.861230428501</v>
       </c>
       <c r="P11" t="n">
         <v>4201.167179115849</v>
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.539913781472</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.635877180809</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0640298439646</v>
+        <v>783.5641934301046</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1278469160577</v>
+        <v>783.5641934301046</v>
       </c>
       <c r="D13" t="n">
-        <v>326.1278469160577</v>
+        <v>633.4475540177689</v>
       </c>
       <c r="E13" t="n">
-        <v>326.1278469160577</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="F13" t="n">
-        <v>326.1278469160577</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>176.447548648385</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1889.275065244217</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1634.59057703833</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.494624715752</v>
+        <v>1413.994788301892</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5050738177345</v>
+        <v>1186.005237403874</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7124946742043</v>
+        <v>965.2126582603444</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192488</v>
+        <v>95.34095638192677</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111741</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075736</v>
+        <v>852.8523611075859</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332375</v>
+        <v>1478.611553332395</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014763</v>
+        <v>2206.558663014791</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355916</v>
+        <v>2950.898526355953</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068018</v>
+        <v>3640.422291068029</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.41387069473</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.26572885228</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797187</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756251</v>
+        <v>243.4633055756276</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468432</v>
+        <v>577.3880777468499</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962599</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636226</v>
+        <v>1072.713683962611</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190829</v>
+        <v>1344.266747951531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190829</v>
+        <v>1896.17647819082</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685894</v>
+        <v>2319.799627685891</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5388,7 +5388,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
         <v>1781.463605996603</v>
@@ -5397,7 +5397,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.614450297915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188009</v>
+        <v>803.2707707770419</v>
       </c>
       <c r="C16" t="n">
-        <v>402.724593490894</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.724593490894</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.724593490894</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.724593490894</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782948</v>
+        <v>174.0526814782964</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038319</v>
+        <v>435.7419440038361</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797701</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910803</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570809</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279793</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.76484885337</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580248</v>
+        <v>2446.96308358027</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983265</v>
+        <v>2379.917379832672</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487554</v>
+        <v>2197.062545487577</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510495</v>
+        <v>1977.461080510518</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854693</v>
+        <v>1688.385853854716</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648806</v>
+        <v>1433.701365648829</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648829</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925707</v>
+        <v>1205.711814750812</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490406</v>
+        <v>984.9192356072816</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>215.8238677453428</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.15241352498</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,7 +6075,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453423</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2285.118447313269</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,16 +6312,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319338</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656833</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150039</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942672</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580132</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345495</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438404</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,13 +6552,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6789,16 +6789,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,7 +7023,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
         <v>2129.438138565707</v>
@@ -7075,25 +7075,25 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7163,40 +7163,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319315</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438401</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150025</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,13 +7600,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,13 +7828,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>3.478817234281451e-11</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-2.376149508817211e-11</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>292.1289717343125</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>250.4617644510737</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.73842034074898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.537044377342397</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>76.00797063971586</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>68.13316748751677</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.88187642683025</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856592</v>
+        <v>81.26583631856525</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392195539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.63391537253403</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.9489693570387</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>24.63391537253449</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>87.17534280744461</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-5.846434575361833e-13</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.463718035665806e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1117937.182862614</v>
+        <v>1117937.182862613</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1315882.832251346</v>
+        <v>1315882.832251347</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1315882.832251346</v>
+        <v>1315882.832251347</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81225.52431657699</v>
+        <v>81225.52431657686</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,13 +26323,13 @@
         <v>100820.0785482653</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26341,7 +26341,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614945318</v>
+        <v>7852.637614955023</v>
       </c>
       <c r="G3" t="n">
-        <v>5.65696245757863e-09</v>
+        <v>-2.399275099717973e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862248</v>
+        <v>195850.9371862247</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282895</v>
+        <v>103327.7358282892</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670922</v>
+        <v>5067.59260167008</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476395</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="M4" t="n">
-        <v>13058.45186476392</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476386</v>
-      </c>
       <c r="O4" t="n">
-        <v>13058.45186476385</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>100905.9587784758</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694929.1687896664</v>
+        <v>-695357.2627279954</v>
       </c>
       <c r="C6" t="n">
         <v>-181293.3627581056</v>
@@ -26528,40 +26528,40 @@
         <v>-181293.3627581056</v>
       </c>
       <c r="E6" t="n">
-        <v>-942237.228635526</v>
+        <v>-942273.4314892215</v>
       </c>
       <c r="F6" t="n">
-        <v>-13149.43507927246</v>
+        <v>-13184.17300471722</v>
       </c>
       <c r="G6" t="n">
-        <v>-5296.797464332456</v>
+        <v>-5331.535389758443</v>
       </c>
       <c r="H6" t="n">
-        <v>-5296.797464326795</v>
+        <v>-5331.535389762459</v>
       </c>
       <c r="I6" t="n">
-        <v>-5296.797464326737</v>
+        <v>-5331.535389762445</v>
       </c>
       <c r="J6" t="n">
-        <v>-209443.2836718686</v>
+        <v>-209443.2836718684</v>
       </c>
       <c r="K6" t="n">
-        <v>-13592.34648564368</v>
+        <v>-13592.34648564372</v>
       </c>
       <c r="L6" t="n">
+        <v>-13592.34648564388</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-137800.8571937023</v>
+      </c>
+      <c r="N6" t="n">
         <v>-13592.34648564381</v>
       </c>
-      <c r="M6" t="n">
-        <v>-137800.8571937024</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-13592.34648564379</v>
-      </c>
       <c r="O6" t="n">
-        <v>-33020.06447927553</v>
+        <v>-33020.06447927556</v>
       </c>
       <c r="P6" t="n">
-        <v>-13592.34648564388</v>
+        <v>-13592.34648564384</v>
       </c>
     </row>
   </sheetData>
@@ -26701,13 +26701,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203961</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341667</v>
+        <v>1367.975500341679</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625281099</v>
+        <v>9.934451625293377</v>
       </c>
       <c r="G3" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>-3.633459174743558e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>142.6634508154828</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>32.63474437476495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.8113485601873</v>
+        <v>52.23183264178923</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>78.35716683297818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>249.4144729088272</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>214.7665585234228</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.06067841699019</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>202.452338934441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>72.58734732854185</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203961</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>363.178673896306</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>394.0223077997508</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348405</v>
+        <v>5.499398996348454</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135311</v>
+        <v>56.32071997135362</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067221</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663258</v>
+        <v>466.75461556633</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817539</v>
+        <v>699.5441750817603</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162516</v>
+        <v>867.8464071162595</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175626</v>
+        <v>965.6463440175712</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159375</v>
+        <v>981.2715114159463</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626459979</v>
+        <v>926.5868626460064</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236466</v>
+        <v>790.8204499236538</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669192</v>
+        <v>593.8732233669245</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043708</v>
+        <v>345.4516222043739</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292894</v>
+        <v>125.3175546292905</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651515</v>
+        <v>24.07361910651537</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078723</v>
+        <v>0.4399519197078762</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659434</v>
+        <v>2.942437868659461</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521086</v>
+        <v>28.41775520521111</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.995851442074</v>
+        <v>277.9958514420765</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422561</v>
+        <v>475.1391886422604</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473039</v>
+        <v>638.8832749473097</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972287129</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071745</v>
+        <v>405.6377363145652</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.080820443727</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214669</v>
+        <v>561.8765786214719</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485271</v>
+        <v>375.5996128485305</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674241</v>
+        <v>54.65449286742459</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937728</v>
+        <v>11.86008947937738</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275944</v>
+        <v>0.1935814387275962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189891</v>
+        <v>2.466841066189913</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121559</v>
+        <v>21.93245966121578</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869237</v>
+        <v>74.18463860869304</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796253</v>
+        <v>174.4056633796268</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355163</v>
+        <v>286.6020802355189</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588134</v>
+        <v>366.7519890588167</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392025</v>
+        <v>386.688550039206</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106769</v>
+        <v>377.4939606106802</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920039</v>
+        <v>348.6767717920071</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417299</v>
+        <v>298.3532140417326</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515917</v>
+        <v>206.5643005515935</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670472</v>
+        <v>110.9181446670482</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532744</v>
+        <v>42.99031203532783</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099317</v>
+        <v>10.54013910099326</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467214</v>
+        <v>0.1345549672467227</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250717</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>510.8679233250717</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>641.2555750770852</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33509,19 +33509,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N42" t="n">
-        <v>510.8679233250717</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>575.5951359912044</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181304</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
-        <v>603.5887878384096</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
         <v>367.2547334404111</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>221.0446399742877</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316176</v>
+        <v>1.53969023631808</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396395</v>
+        <v>285.7087110396437</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367734</v>
+        <v>479.4543240367797</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462644</v>
+        <v>632.0799921462722</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902899</v>
+        <v>735.3001107902985</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193466</v>
+        <v>751.8584478193554</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224346</v>
+        <v>696.4886512243196</v>
       </c>
       <c r="P14" t="n">
-        <v>559.587454168377</v>
+        <v>559.5874541683843</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924697</v>
+        <v>371.567533492475</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902387</v>
+        <v>129.866084390216</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754073</v>
+        <v>151.1582247754098</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678971</v>
+        <v>337.2977496679014</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674297</v>
+        <v>500.3288951674355</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066946</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238413</v>
+        <v>274.2960242312319</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992826</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071367</v>
+        <v>427.9021712071417</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625056</v>
+        <v>235.6178387625089</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295248</v>
+        <v>81.04648326295404</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096334</v>
+        <v>264.3325884096361</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191296</v>
+        <v>394.3420143191329</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010431</v>
+        <v>426.2724270010466</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899055</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060436</v>
+        <v>373.2618997060467</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066234</v>
+        <v>295.6317733066261</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998973</v>
+        <v>120.4022572998991</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417385</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5262112417385</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9138629937518</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016747</v>
@@ -36999,10 +36999,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37157,19 +37157,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N42" t="n">
-        <v>379.5262112417385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>433.4611020691861</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
